--- a/Unidad 3/Asociador_Lineal/Instancia_Ejemplo1.xlsx
+++ b/Unidad 3/Asociador_Lineal/Instancia_Ejemplo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\AmbosGrupos_SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2024_1/Unidad 3/Asociador_Lineal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E6D77-8049-4B3F-B138-1CBE958C5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79514ECB-E844-854A-9599-0638B3BB7AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="24780" windowHeight="12220" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>SALIDAS (Y)</t>
+  </si>
+  <si>
+    <t>CODIFICACIO BINARIO</t>
+  </si>
+  <si>
+    <t>NO SE USA</t>
+  </si>
+  <si>
+    <t>ONE HOT VECTOR</t>
+  </si>
+  <si>
+    <t>ONE COLD VECTOR</t>
   </si>
 </sst>
 </file>
@@ -224,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,13 +534,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085510A3-C276-47B6-BB5B-CC503AD90EA4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -549,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -574,10 +589,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -598,20 +613,17 @@
         <v>7</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="K3" t="s">
-        <v>7</v>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -632,20 +644,17 @@
         <v>7</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="K4" t="s">
-        <v>6</v>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -666,20 +675,17 @@
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="K5" t="s">
-        <v>8</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -700,8 +706,17 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -722,8 +737,17 @@
         <v>8</v>
       </c>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -744,8 +768,20 @@
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -769,8 +805,20 @@
       <c r="I9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -791,8 +839,20 @@
         <v>15</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
@@ -812,7 +872,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -857,7 +917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -904,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -951,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
